--- a/xls/config/config.xlsx
+++ b/xls/config/config.xlsx
@@ -14,101 +14,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>NCHAR</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
   <si>
     <t>数据库类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>number(p,s)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>clob</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>LONGRAW</t>
+  </si>
+  <si>
+    <t>longraw</t>
+  </si>
+  <si>
+    <t>nchar</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>nclob</t>
   </si>
   <si>
     <t>TD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>NCHAR</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>smallint</t>
+  </si>
+  <si>
+    <t>SMALLDATETIME</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>Mysql</t>
+  </si>
+  <si>
+    <t>mediumblob</t>
+  </si>
+  <si>
+    <t>long_varbinary</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>NTEXT</t>
+  </si>
+  <si>
+    <t>ntext</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>smalldatetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +221,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,25 +266,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -448,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" activeCellId="1" sqref="C2:C18 E5"/>
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -462,201 +587,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="50" spans="1:3" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25">
+      <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25">
+      <c r="A57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25">
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25">
+      <c r="A60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25">
+      <c r="A61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25">
+      <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25">
+      <c r="A63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/xls/config/config.xlsx
+++ b/xls/config/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
   <si>
     <t>VARCHAR2</t>
   </si>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>smalldatetime</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -243,7 +267,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,12 +301,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -847,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25">
@@ -929,7 +960,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -939,25 +970,25 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25">
@@ -965,10 +996,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25">
@@ -976,10 +1007,10 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25">
@@ -987,10 +1018,10 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25">
@@ -998,7 +1029,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>19</v>
@@ -1009,10 +1040,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25">
@@ -1020,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25">
@@ -1031,10 +1062,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25">
@@ -1042,10 +1073,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25">
@@ -1053,10 +1084,10 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25">
@@ -1064,10 +1095,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25">
@@ -1075,10 +1106,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25">
@@ -1086,10 +1117,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
@@ -1097,10 +1128,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25">
@@ -1108,21 +1139,21 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25">
@@ -1130,10 +1161,10 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25">
@@ -1141,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
@@ -1152,10 +1183,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25">
@@ -1163,10 +1194,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25">
@@ -1174,10 +1205,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25">
@@ -1185,10 +1216,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25">
@@ -1196,10 +1227,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
@@ -1207,10 +1238,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25">
@@ -1218,10 +1249,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25">
@@ -1229,10 +1260,10 @@
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25">
@@ -1240,21 +1271,21 @@
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25">
-      <c r="A61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25">
@@ -1262,10 +1293,10 @@
         <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25">
@@ -1273,10 +1304,32 @@
         <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25">
+      <c r="A64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25">
+      <c r="A65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/xls/config/config.xlsx
+++ b/xls/config/config.xlsx
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25">
@@ -960,7 +960,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25">
@@ -1329,7 +1329,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/xls/config/config.xlsx
+++ b/xls/config/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="65">
   <si>
     <t>VARCHAR2</t>
   </si>
@@ -160,12 +160,6 @@
     <t>long_varbinary</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>nvarchar</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t>tinyint</t>
-  </si>
-  <si>
-    <t>bit</t>
   </si>
   <si>
     <t>IMAGE</t>
@@ -604,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -878,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25">
@@ -960,7 +951,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -971,13 +962,13 @@
     </row>
     <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25">
@@ -1087,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25">
@@ -1098,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25">
@@ -1142,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25">
@@ -1153,183 +1144,194 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25">
       <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25">
+      <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25">
-      <c r="A62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>60</v>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25">
       <c r="A64" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25">
+      <c r="A65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25">
-      <c r="A65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>66</v>
+      <c r="C65" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25">
+      <c r="A66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
